--- a/data/trans_orig/P33_MIN_2023_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Provincia-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,58; 44,1</t>
+          <t>28,84; 44,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,23; 59,58</t>
+          <t>43,55; 59,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,99; 48,49</t>
+          <t>37,27; 48,18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,91; 49,52</t>
+          <t>33,05; 50,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,97; 44,53</t>
+          <t>29,77; 45,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,68; 45,19</t>
+          <t>33,52; 44,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,2; 33,24</t>
+          <t>19,03; 32,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,71; 45,32</t>
+          <t>17,54; 42,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,06; 33,32</t>
+          <t>20,34; 32,19</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,58; 42,31</t>
+          <t>29,22; 42,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,96; 48,32</t>
+          <t>23,61; 49,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,53; 41,21</t>
+          <t>28,58; 41,69</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,97; 61,87</t>
+          <t>43,74; 61,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,51; 51,19</t>
+          <t>35,91; 51,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,9; 53,88</t>
+          <t>42,77; 54,45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,04; 40,79</t>
+          <t>20,98; 41,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,2; 29,45</t>
+          <t>10,68; 29,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,94; 32,64</t>
+          <t>18,75; 33,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,4; 33,94</t>
+          <t>23,09; 33,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,48; 33,8</t>
+          <t>4,87; 33,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,9; 31,01</t>
+          <t>7,48; 30,82</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,86; 55,21</t>
+          <t>9,99; 55,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>44,95; 50,32</t>
+          <t>44,82; 50,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,43; 51,74</t>
+          <t>14,75; 51,32</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,31; 39,03</t>
+          <t>18,8; 39,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,41; 38,31</t>
+          <t>19,02; 38,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,52; 37,81</t>
+          <t>22,82; 37,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_MIN_2023_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Provincia-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de horas durante las cuales se echan la siesta en minutos</t>
+          <t>Nº medio de minutos durante los cuales la población se echa la siesta</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
